--- a/Descargas/R15_Juzgado De Familia De Antofagasta_Ingresos Causas Por Materia_2018-Agosto.xlsx
+++ b/Descargas/R15_Juzgado De Familia De Antofagasta_Ingresos Causas Por Materia_2018-Agosto.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -281,7 +281,7 @@
         </is>
       </c>
       <c r="B8" s="65">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -321,97 +321,97 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Autorización Para Enajenar Bienes Raíces</t>
+          <t xml:space="preserve">Compensacion Economica</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Compensacion Economica</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Cuidado Del Niño, Otros</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Cuidado Del Niño, Otros</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
+          <t xml:space="preserve">Declaracion De Bienes Familiares</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Declaracion De Bienes Familiares</t>
+          <t xml:space="preserve">Declaracion De Susceptibilidad</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Declaracion De Susceptibilidad</t>
+          <t xml:space="preserve">Desafectacion De Bienes Familiares</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="B22" s="65">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B23" s="65">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B24" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B25" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B26" s="65">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B27" s="65">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B29" s="65">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B30" s="65">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B31" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -521,77 +521,107 @@
         </is>
       </c>
       <c r="B32" s="65">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Patria Potestad, Otros</t>
         </is>
       </c>
       <c r="B33" s="65">
-        <v>157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular, Otros</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Separacion Matrimonial</t>
+          <t xml:space="preserve">Relacion Directa Y Regular, Otros</t>
         </is>
       </c>
       <c r="B37" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
+          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
         </is>
       </c>
       <c r="B38" s="65">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
+          <t xml:space="preserve">Separacion Judicial De Bienes</t>
+        </is>
+      </c>
+      <c r="B39" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c t="inlineStr" r="A40">
+        <is>
+          <t xml:space="preserve">Separacion Matrimonial</t>
+        </is>
+      </c>
+      <c r="B40" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c t="inlineStr" r="A41">
+        <is>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
+        </is>
+      </c>
+      <c r="B41" s="65">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42">
+      <c t="inlineStr" r="A42">
+        <is>
           <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
-      <c r="B39" s="65">
-        <v>216</v>
+      <c r="B42" s="65">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
